--- a/biology/Botanique/Paul-François_Lacoste/Paul-François_Lacoste.xlsx
+++ b/biology/Botanique/Paul-François_Lacoste/Paul-François_Lacoste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul-Fran%C3%A7ois_Lacoste</t>
+          <t>Paul-François_Lacoste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul François Lacoste est un ecclésiastique français (abbé), naturaliste et géologue, né le 4 février 1755 à Plaisance-du-Touch près de Toulouse et mort le 18 avril 1826 à Clermont-Ferrand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul-Fran%C3%A7ois_Lacoste</t>
+          <t>Paul-François_Lacoste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lacoste est d'abord vicaire à Toulouse puis professeur de morale[1]. Pendant la Révolution française, il voyage en Auvergne et devient en 1798 professeur d'histoire naturelle à l’École centrale du département du Puy-de-Dôme et directeur du jardin botanique de Clermont-Ferrand. A la fermeture de l’École centrale en 1804, il est engagé par la ville de Clermont-Ferrand comme professeur d'histoire naturelle et, après sa fondation en 1808, enseigne au lycée de la ville. En 1820, il fait don de sa collection de botanique et minéralogie à la ville[2]. Peu de temps avant sa mort, il devint chanoine honoraire de la cathédrale de Clermont-Ferrand.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lacoste est d'abord vicaire à Toulouse puis professeur de morale. Pendant la Révolution française, il voyage en Auvergne et devient en 1798 professeur d'histoire naturelle à l’École centrale du département du Puy-de-Dôme et directeur du jardin botanique de Clermont-Ferrand. A la fermeture de l’École centrale en 1804, il est engagé par la ville de Clermont-Ferrand comme professeur d'histoire naturelle et, après sa fondation en 1808, enseigne au lycée de la ville. En 1820, il fait don de sa collection de botanique et minéralogie à la ville. Peu de temps avant sa mort, il devint chanoine honoraire de la cathédrale de Clermont-Ferrand.
 Concernant la nature des volcans, il suit en partie Eugène Patrin (1742-1825), bibliothécaire au Conseil des mines et auteur d'un essai sur le volcanisme. De ses idées parfois aventureuses sur les processus chimiques qui se déroulent dans les volcans du point de vue d'aujourd'hui (il adhère à l'explication neptuniste et y voit la circulation de certains liquides à l'œuvre), il ne retient que l'hypothèse selon laquelle des liquides probablement inflammables (bitume) sont à l'origine du volcanisme. Globalement, comme Patrin, il suppose encore qu'ils se sont formés à la suite du retrait de la mer, même si, selon ses observations, ils ne se sont pas formés directement dans la mer.
 Au regard d'aujourd'hui, ses observations apparaissent comme un recul par rapport aux idées de ses prédécesseurs sur le volcanisme en Auvergne (Nicolas Desmarest et notamment François Dominique de Reynaud de Montlosier ou Déodat Gratet de Dolomieu).
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul-Fran%C3%A7ois_Lacoste</t>
+          <t>Paul-François_Lacoste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Observations sur les volcans d'Auvergne, Clermont-Ferrand, chez la Veuve Delcros et fils, imprimeurs-libraires, rue de la Treille. Et chez Granier et Froin, imprimeurs, rue Ballainvilliers, 1803, 211 p. (lire en ligne)
 Lettres minéralogiques et géologiques sur les volcans d'Auvergne, Clermont-Ferrand, impr. de Landriot, 1805, 462 p. (lire en ligne)
